--- a/experiment result/128_0.8_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.8_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0036787467902622</v>
+        <v>0.00026551482624552</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01044266144867817</v>
+        <v>0.0008576326199470512</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02370004593281049</v>
+        <v>0.0162036723055159</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01331778162830349</v>
+        <v>0.01275635192394512</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01041067363535438</v>
+        <v>0.004118184953396523</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0130798637418376</v>
+        <v>0.01510003888398746</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01174124677898369</v>
+        <v>0.01283526629843291</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.011651782524604</v>
+        <v>0.001221036950539542</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01448855951140413</v>
+        <v>0.004793882968733638</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01289644364960791</v>
+        <v>0.05964025780578658</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01087674330333172</v>
+        <v>0.002235457026238024</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01882407078325211</v>
+        <v>0.05844704690864777</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006674058970935972</v>
+        <v>0.0007551778959477731</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009206206909596818</v>
+        <v>0.0008715121628126113</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01147270946032823</v>
+        <v>0.009177369632245498</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01629835283371855</v>
+        <v>0.002877997538660008</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01100999097745038</v>
+        <v>0.001884092462363533</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003210758590325861</v>
+        <v>0.0001604843501193739</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01118192099811612</v>
+        <v>0.0196673433816034</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008562893148608777</v>
+        <v>0.0007794001887075841</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.007616836672686378</v>
+        <v>0.0006214606400557373</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006068732348538256</v>
+        <v>0.0003939224098447224</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01147999396815974</v>
+        <v>0.02091111398505604</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004969897510730295</v>
+        <v>0.0005745506377526409</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003912826707156113</v>
+        <v>0.0001306492077065688</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0133411653901039</v>
+        <v>0.005190592541155544</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0139811503614765</v>
+        <v>0.002676441179274618</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02108982509818773</v>
+        <v>0.01819837298017966</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01253866471480302</v>
+        <v>0.002108254839957528</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01230337859471334</v>
+        <v>0.02659813428152678</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002715305504068967</v>
+        <v>0.0001071364371126946</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005266860987117995</v>
+        <v>0.0004615900019750459</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009215275377611317</v>
+        <v>0.004916147690438007</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.007962178031883864</v>
+        <v>0.0006579411241919359</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008983660819598527</v>
+        <v>0.001262888347361171</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01474584023819539</v>
+        <v>0.004764593449530771</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.005062218209388602</v>
+        <v>0.0008868601692861957</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.008040129558544499</v>
+        <v>0.000448280321078124</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0129468410134891</v>
+        <v>0.002595970394425794</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01443902843668263</v>
+        <v>0.006550136486206577</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01280609245986815</v>
+        <v>0.01928548415281152</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.009148715654007551</v>
+        <v>0.01655443034114956</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01710570055875623</v>
+        <v>0.02358868048204336</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01382165537424961</v>
+        <v>0.01748828231607255</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01475830887434651</v>
+        <v>0.00856160711277287</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01791049541180168</v>
+        <v>0.00552910504212612</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01450236596749382</v>
+        <v>0.04770049311277982</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.004198240645812019</v>
+        <v>0.008098862124746272</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01085816090440383</v>
+        <v>0.0005969598626751354</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.003297476330662334</v>
+        <v>0.0002873060845049139</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009434132111960633</v>
+        <v>0.001847683467242986</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01734192097968946</v>
+        <v>0.005322482149162213</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001545666434326684</v>
+        <v>9.716041179543124e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004394211029108938</v>
+        <v>0.0004328548045630688</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.012237053707888</v>
+        <v>0.002402833921145921</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008485108797604998</v>
+        <v>0.001817099840362366</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006985138301062623</v>
+        <v>0.0034698616961079</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01264821366961355</v>
+        <v>0.002119467107914421</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.009825791359968201</v>
+        <v>0.003012281445667598</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.006845208811310653</v>
+        <v>0.03279123362434666</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002194883128708789</v>
+        <v>0.0008319626926099312</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004650150451146482</v>
+        <v>0.0006319139728885471</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0125694819306253</v>
+        <v>0.008412592835435957</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007980750150188207</v>
+        <v>0.007231778523437321</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.008541975493393129</v>
+        <v>0.003555622465927252</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.009917906155159726</v>
+        <v>0.005215464560314285</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01403481309887926</v>
+        <v>0.001351649730391148</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005898892377468149</v>
+        <v>0.00306097061787812</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003926180057005639</v>
+        <v>0.001252055428704598</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005153546477935878</v>
+        <v>0.001669141007316578</v>
       </c>
     </row>
   </sheetData>
